--- a/hard/v0/board/bom/BOM_PLsi_0.xlsx
+++ b/hard/v0/board/bom/BOM_PLsi_0.xlsx
@@ -214,7 +214,7 @@
     <t xml:space="preserve">Only for units with analog outputs</t>
   </si>
   <si>
-    <t xml:space="preserve">LM358AN</t>
+    <t xml:space="preserve">TLV2462CP</t>
   </si>
   <si>
     <t xml:space="preserve">U11</t>
@@ -411,17 +411,17 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
